--- a/GRO_data.xlsx
+++ b/GRO_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5583964646464646</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.54</v>
+        <v>0.5402777777777777</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.44</v>
+        <v>0.439484126984127</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.51</v>
+        <v>0.5112433862433863</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.45</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.54</v>
+        <v>0.54375</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -589,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.48</v>
+        <v>0.4797979797979798</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.48</v>
+        <v>0.4802083333333333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.46</v>
+        <v>0.4638888888888889</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.43</v>
+        <v>0.4305555555555556</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.39</v>
+        <v>0.3864583333333333</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.12</v>
+        <v>0.1220238095238095</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.76</v>
+        <v>0.764</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0.67</v>
+        <v>0.667</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>0.59</v>
+        <v>0.593</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>0.62</v>
+        <v>0.621</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>0.51</v>
+        <v>0.509</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -904,7 +904,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>0.61</v>
+        <v>0.614</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2214,6 +2214,258 @@
         </is>
       </c>
       <c r="E85" t="inlineStr">
+        <is>
+          <t>Dec</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.2724137931034483</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.312280701754386</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Feb</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.3069306930693069</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.3255131964809384</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Apr</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.2816326530612245</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.302491103202847</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Jul</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>8</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Aug</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>9</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.2597402597402597</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Sep</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>10</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.3697183098591549</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Oct</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>11</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.3287671232876712</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Nov</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>12</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.3255813953488372</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>Dec</t>
         </is>
